--- a/GPA.xlsx
+++ b/GPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\UCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AD45D3-7121-4AED-9471-86651D17592E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984EC0F5-56B8-489F-B448-E0E463F6B1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$G$23</definedName>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Append1!$A$1:$N$37</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Append1!$A$1:$N$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="150">
   <si>
     <t>Column1</t>
   </si>
@@ -523,6 +523,21 @@
   </si>
   <si>
     <t>CNCPTS OF CHM LAB</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Antenna Design and Analysis</t>
+  </si>
+  <si>
+    <t>Fund. Of Digital Communcations</t>
+  </si>
+  <si>
+    <t>Embedded Systems</t>
+  </si>
+  <si>
+    <t>RF Active Circuits</t>
   </si>
 </sst>
 </file>
@@ -558,8 +573,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,8 +693,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BEC105DE-542A-438A-97AE-721166030487}" name="Append1" displayName="Append1" ref="A1:N37" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N37" xr:uid="{BEC105DE-542A-438A-97AE-721166030487}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BEC105DE-542A-438A-97AE-721166030487}" name="Append1" displayName="Append1" ref="A1:N41" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N41" xr:uid="{BEC105DE-542A-438A-97AE-721166030487}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{389A3315-9D41-422D-A8BA-500F0133E383}" uniqueName="1" name="Term" queryTableFieldId="1" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{485CE463-879C-4172-ABF3-5948608B3A77}" uniqueName="2" name="Subject" queryTableFieldId="2" dataDxfId="16"/>
@@ -978,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612958DB-DFC3-4D52-A12A-CD1ABC5EACFB}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2015,7 +2031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2046,7 +2062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2066,10 +2082,10 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2089,10 +2105,10 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2112,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2135,8 +2151,100 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="N41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
